--- a/ghost_fund_savings.xlsx
+++ b/ghost_fund_savings.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,11 @@
           <t>Est Rashed</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8801727176654</t>
+        </is>
+      </c>
       <c r="E2" t="n">
         <v>50</v>
       </c>
@@ -508,7 +512,11 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E3" t="n">
         <v>215</v>
       </c>
@@ -534,7 +542,11 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E4" t="n">
         <v>215</v>
       </c>
@@ -560,7 +572,11 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E5" t="n">
         <v>245</v>
       </c>
@@ -586,7 +602,11 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E6" t="n">
         <v>290</v>
       </c>
@@ -612,7 +632,11 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E7" t="n">
         <v>295</v>
       </c>
@@ -638,7 +662,11 @@
           <t>Eu Hasib</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8801820237172</t>
+        </is>
+      </c>
       <c r="E8" t="n">
         <v>70</v>
       </c>
@@ -664,7 +692,11 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E9" t="n">
         <v>215</v>
       </c>
@@ -690,7 +722,11 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E10" t="n">
         <v>215</v>
       </c>
@@ -716,7 +752,11 @@
           <t>Est Noman</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8801887613207</t>
+        </is>
+      </c>
       <c r="E11" t="n">
         <v>40</v>
       </c>
@@ -742,7 +782,11 @@
           <t>Md.Tareq Ahmed</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8801613979182</t>
+        </is>
+      </c>
       <c r="E12" t="n">
         <v>20</v>
       </c>
@@ -768,7 +812,11 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E13" t="n">
         <v>215</v>
       </c>
@@ -794,7 +842,11 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E14" t="n">
         <v>225</v>
       </c>
@@ -807,26 +859,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11/29/25</t>
+          <t>11/27/25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7:20 PM</t>
+          <t>10:17 PM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Est Rashed</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>Eu Dean Sir</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E15" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>saved 40 avoid rickshaw</t>
+          <t>Saved Tk. 60 from Ricshaw.</t>
         </is>
       </c>
     </row>
@@ -838,111 +894,127 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10:17 PM</t>
+          <t>9:46 AM</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Eu Dean Sir</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>Eu Hasib</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8801820237172</t>
+        </is>
+      </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Saved Tk. 60 from Ricshaw.</t>
+          <t>Saved 50 taka from Tobacco products</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11/27/25</t>
+          <t>11/26/25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2:56 PM</t>
+          <t>10:29 PM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Est Rashed</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>Md.Tareq Ahmed</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8801613979182</t>
+        </is>
+      </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>saved 50 avoid rickshaw</t>
+          <t>saved 2000 tk to repair a backpack instead of buying a new one.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11/27/25</t>
+          <t>11/26/25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9:46 AM</t>
+          <t>10:13 PM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Eu Hasib</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>Eu Dean Sir</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Saved 50 taka from Tobacco products</t>
+          <t>Saved from Metro and Ricshaw: 215 Tk.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11/26/25</t>
+          <t>11/24/25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10:29 PM</t>
+          <t>11:18 PM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Md.Tareq Ahmed</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>Est Noman</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8801887613207</t>
+        </is>
+      </c>
       <c r="E19" t="n">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>saved 2000 tk to repair a backpack instead of buying a new one.</t>
+          <t>today i saved 20tk to avoid Ricshaw</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11/26/25</t>
+          <t>11/24/25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10:13 PM</t>
+          <t>10:55 PM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -950,51 +1022,59 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E20" t="n">
-        <v>215</v>
+        <v>315</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Saved from Metro and Ricshaw: 215 Tk.</t>
+          <t>Saved from Metro and Ricshaw: 315 Tk.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>11/24/25</t>
+          <t>11/23/25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>11:18 PM</t>
+          <t>7:16 PM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Est Noman</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>Eu Dean Sir</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>today i saved 20tk to avoid Ricshaw</t>
+          <t>Saved from Metro and Ricshaw: 215 Tk.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11/24/25</t>
+          <t>11/23/25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10:55 PM</t>
+          <t>8:17 AM</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1002,25 +1082,29 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E22" t="n">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Saved from Metro and Ricshaw: 315 Tk.</t>
+          <t>Yesterday, saved from Metro and Ricshaw: 215 Tk.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11/23/25</t>
+          <t>11/21/25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7:16 PM</t>
+          <t>11:25 PM</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1028,51 +1112,59 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E23" t="n">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Saved from Metro and Ricshaw: 215 Tk.</t>
+          <t>Saved 160 Tk. avoiding Ricshaw and 80 Tk. using auto Ricshaw instead of CNG.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11/23/25</t>
+          <t>11/20/25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6:49 PM</t>
+          <t>10:53 AM</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Est Rashed</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>Eu Dean Sir</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E24" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>today I saved 40 to avoid fast-food</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>11/23/25</t>
+          <t>11/19/25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8:17 AM</t>
+          <t>11:43 PM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1080,25 +1172,29 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E25" t="n">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Yesterday, saved from Metro and Ricshaw: 215 Tk.</t>
+          <t>60</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>11/21/25</t>
+          <t>11/19/25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11:25 PM</t>
+          <t>11:41 PM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1106,77 +1202,89 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E26" t="n">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Saved 160 Tk. avoiding Ricshaw and 80 Tk. using auto Ricshaw instead of CNG.</t>
+          <t>315</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>11/20/25</t>
+          <t>11/18/25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10:53 AM</t>
+          <t>10:41 PM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Eu Dean Sir</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>Eu Hasib</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8801820237172</t>
+        </is>
+      </c>
       <c r="E27" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>From tobacco products save  30 taka</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>11/19/25</t>
+          <t>11/18/25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>11:43 PM</t>
+          <t>10:10 PM</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Eu Dean Sir</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>Md.Tareq Ahmed</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8801613979182</t>
+        </is>
+      </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>Today i saved 20 tk , by burgeining take some fruits</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>11/19/25</t>
+          <t>11/18/25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>11:41 PM</t>
+          <t>6:16 PM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1184,46 +1292,54 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E29" t="n">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>215</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>11/19/25</t>
+          <t>11/17/25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>11:12 PM</t>
+          <t>9:27 PM</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Est Rashed</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>Eu Dean Sir</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Today i saved 30 from rickshaw &lt;This message was edited&gt;</t>
+          <t>40</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>11/19/25</t>
+          <t>11/16/25</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1236,233 +1352,265 @@
           <t>Md.Tareq Ahmed</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8801613979182</t>
+        </is>
+      </c>
       <c r="E31" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Today i saved 40 from rickshow</t>
+          <t>Today i saved 20 tk,  i didnt drink coffee &lt;This message was edited&gt;</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>11/18/25</t>
+          <t>11/16/25</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10:41 PM</t>
+          <t>5:30 PM</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Eu Hasib</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>Eu Dean Sir</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>265</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>From tobacco products save  30 taka</t>
+          <t>265</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>11/18/25</t>
+          <t>11/14/25</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10:10 PM</t>
+          <t>11:53 AM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Md.Tareq Ahmed</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>Eu Dean Sir</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E33" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Today i saved 50 tk , by avoiding take some fruits</t>
+          <t>Saved BDT 160 avoiding expressway.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>11/18/25</t>
+          <t>11/13/25</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6:16 PM</t>
+          <t>8:26 PM</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Eu Dean Sir</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>Eu Hasib</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8801820237172</t>
+        </is>
+      </c>
       <c r="E34" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>1. I used to use many types of spices in my food, but now I don't use. 2.So I save 300 taka every month from here.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>11/18/25</t>
+          <t>11/13/25</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1:05 PM</t>
+          <t>8:26 PM</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Est Rashed</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>Est Noman</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8801887613207</t>
+        </is>
+      </c>
       <c r="E35" t="n">
         <v>50</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>saved 50 . avoiding rickshaw</t>
+          <t>today i save 50tk from rickshaw</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>11/17/25</t>
+          <t>11/12/25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9:27 PM</t>
+          <t>8:48 PM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Eu Dean Sir</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>Eu Hasib</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8801820237172</t>
+        </is>
+      </c>
       <c r="E36" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>I used to buy T-shirts for 500 taka, but now I buy them for 300 taka, but this is much better.200 taka is saved.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>11/16/25</t>
+          <t>11/12/25</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>11:11 PM</t>
+          <t>6:53 PM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Md.Tareq Ahmed</t>
+          <t>+880 1795-827745</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Today i saved 20 tk,  i didnt drink coffee &lt;This message was edited&gt;</t>
+          <t>BDT 10 I had tea and ate at home instead of eating out. &lt;This message was edited&gt;</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>11/16/25</t>
+          <t>11/12/25</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5:30 PM</t>
+          <t>6:47 PM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Eu Dean Sir</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>Md.Tareq Ahmed</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8801613979182</t>
+        </is>
+      </c>
       <c r="E38" t="n">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>Saved 20 tk from rickshaw</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>11/14/25</t>
+          <t>11/12/25</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11:53 AM</t>
+          <t>5:49 PM</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Eu Dean Sir</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>Est Noman</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8801887613207</t>
+        </is>
+      </c>
       <c r="E39" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Saved BDT 160 avoiding expressway.</t>
+          <t>Today I saved Ricshaw 20+20= 40tk</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>11/13/25</t>
+          <t>11/12/25</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11:50 PM</t>
+          <t>5:34 PM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1470,635 +1618,397 @@
           <t>Est Rashed</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8801727176654</t>
+        </is>
+      </c>
       <c r="E40" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Everyone will enter the data every day and how to enter has now been made easier in the app. After clicking on the link, then clicking on New Record ,than you will select your name and how you saved the money and how much money you can enter. In this, the money will be total and will shown to the dashboard and the number of entries will also be shown. We will manually update your money in the group every Thursday at 9 pm and at 12 pm we will insure it from the app and tell who has saved how much money. The update will be given from the app at 12 midnight.</t>
+          <t>first 20 tk then 30 tk and today 30 tk</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11/13/25</t>
+          <t>11/12/25</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>11:13 PM</t>
+          <t>5:31 PM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Est Noman</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>Est Rashed</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8801727176654</t>
+        </is>
+      </c>
       <c r="E41" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>My weekly ghost fund by Thursday 9 pm : BDT 90</t>
+          <t>i saved total 80tk</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>11/13/25</t>
+          <t>11/12/25</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11:06 PM</t>
+          <t>1:10 PM</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Eu Hasib</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>Est Rashed</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8801727176654</t>
+        </is>
+      </c>
       <c r="E42" t="n">
-        <v>590</v>
+        <v>30</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>My weekly ghost fund by Thursday 9 pm : BDT 590</t>
+          <t>saved 30 tk avoiding metro</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>11/13/25</t>
+          <t>11/12/25</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>11:06 PM</t>
+          <t>12:41 PM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Md.Tareq Ahmed</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>Eu Dean Sir</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E43" t="n">
-        <v>940</v>
+        <v>60</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>My weekly ghost fund by Thursday 9 pm : BDT 940</t>
+          <t>Saved avoiding Ricshaw:  60 taka.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>11/13/25</t>
+          <t>11/12/25</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11:01 PM</t>
+          <t>12:43 AM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Eu Dean Sir</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>Eu Hasib</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8801820237172</t>
+        </is>
+      </c>
       <c r="E44" t="n">
-        <v>1035</v>
+        <v>140</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>My weekly ghost fund by Thursday 9 pm: BDT 1035</t>
+          <t>Saved 40 taka from Piaju  From tobacco products save 30 taka Total =70 taka</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>11/13/25</t>
+          <t>11/11/25</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8:26 PM</t>
+          <t>7:41 PM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Eu Hasib</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>Est Rashed</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8801727176654</t>
+        </is>
+      </c>
       <c r="E45" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1. I used to use many types of spices in my food, but now I don't use. 2.So I save 300 taka every month from here.</t>
+          <t>i saved 30tk</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>11/13/25</t>
+          <t>11/11/25</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8:26 PM</t>
+          <t>7:32 PM</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Est Noman</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>Md.Tareq Ahmed</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8801613979182</t>
+        </is>
+      </c>
       <c r="E46" t="n">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>today i save 50tk from rickshaw</t>
+          <t>I saved 900 tk from the buffet program</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>11/12/25</t>
+          <t>11/10/25</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>8:48 PM</t>
+          <t>11:34 PM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Eu Hasib</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>Md.Tareq Ahmed</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8801613979182</t>
+        </is>
+      </c>
       <c r="E47" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>I used to buy T-shirts for 500 taka, but now I buy them for 300 taka, but this is much better.200 taka is saved.</t>
+          <t>I didn’t eat jalmuri today, so I saved 20 Taka.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>11/12/25</t>
+          <t>11/10/25</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6:53 PM</t>
+          <t>11:33 PM</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>+880 1795-827745</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>Est Rashed</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8801727176654</t>
+        </is>
+      </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>BDT 10 I had tea and ate at home instead of eating out. &lt;This message was edited&gt;</t>
+          <t>I didn't take a rickshaw today, so I saved 20 taka.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>11/12/25</t>
+          <t>11/10/25</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6:47 PM</t>
+          <t>11:32 PM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Md.Tareq Ahmed</t>
+          <t>+880 1795-827745</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Saved 20 tk from rickshaw</t>
+          <t>I didn’t eat chicken fry today, so I saved 50 Taka.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>11/12/25</t>
+          <t>11/10/25</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5:49 PM</t>
+          <t>11:29 PM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Est Noman</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>Est Rashed</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8801727176654</t>
+        </is>
+      </c>
       <c r="E50" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Today I saved Ricshaw 20+20= 40tk</t>
+          <t>BDT 20</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>11/12/25</t>
+          <t>11/10/25</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5:34 PM</t>
+          <t>11:28 PM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Est Rashed</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>Md.Tareq Ahmed</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8801613979182</t>
+        </is>
+      </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>first 20 tk then 30 tk and today 30 tk</t>
+          <t>I saved 20 tk today</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>11/12/25</t>
+          <t>11/10/25</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5:31 PM</t>
+          <t>11:28 PM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Est Rashed</t>
+          <t>+880 1795-827745</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>i saved total 80tk</t>
+          <t>BDT 50</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>11/12/25</t>
+          <t>11/10/25</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1:10 PM</t>
+          <t>11:26 PM</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Est Rashed</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>Eu Dean Sir</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="F53" t="inlineStr">
-        <is>
-          <t>saved 30 tk avoiding metro</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>11/12/25</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>12:41 PM</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Eu Dean Sir</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
-        <v>60</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Saved avoiding Ricshaw:  60 taka.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>11/12/25</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>12:43 AM</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Eu Hasib</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="n">
-        <v>70</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Saved 40 taka from Piaju  From tobacco products save 30 taka Total =70 taka</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>11/11/25</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>7:41 PM</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Est Rashed</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>30</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>i saved 30tk</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>11/11/25</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>7:32 PM</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Md.Tareq Ahmed</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="n">
-        <v>900</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>I saved 900 tk from the buffet program</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>11/10/25</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>11:34 PM</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Md.Tareq Ahmed</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="n">
-        <v>20</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>I didn’t eat jalmuri today, so I saved 20 Taka.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>11/10/25</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>11:33 PM</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Est Rashed</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="n">
-        <v>20</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>I didn't take a rickshaw today, so I saved 20 taka.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>11/10/25</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>11:32 PM</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>+880 1795-827745</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="n">
-        <v>50</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>I didn’t eat chicken fry today, so I saved 50 Taka.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>11/10/25</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>11:29 PM</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Est Rashed</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="n">
-        <v>20</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>BDT 20</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>11/10/25</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>11:28 PM</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Md.Tareq Ahmed</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="n">
-        <v>20</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>I saved 20 tk today</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>11/10/25</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>11:28 PM</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>+880 1795-827745</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="n">
-        <v>50</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>BDT 50</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>11/10/25</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>11:26 PM</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Eu Dean Sir</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
-        <v>215</v>
-      </c>
-      <c r="F64" t="inlineStr">
         <is>
           <t>BDT 215</t>
         </is>
@@ -2157,9 +2067,13 @@
           <t>Est Noman</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8801887613207</t>
+        </is>
+      </c>
       <c r="C3" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -2168,9 +2082,13 @@
           <t>Est Rashed</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8801727176654</t>
+        </is>
+      </c>
       <c r="C4" t="n">
-        <v>482</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5">
@@ -2179,9 +2097,13 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
       <c r="C5" t="n">
-        <v>5695</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="6">
@@ -2190,9 +2112,13 @@
           <t>Eu Hasib</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8801820237172</t>
+        </is>
+      </c>
       <c r="C6" t="n">
-        <v>1310</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="7">
@@ -2201,9 +2127,13 @@
           <t>Md.Tareq Ahmed</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8801613979182</t>
+        </is>
+      </c>
       <c r="C7" t="n">
-        <v>4030</v>
+        <v>3020</v>
       </c>
     </row>
   </sheetData>

--- a/ghost_fund_savings.xlsx
+++ b/ghost_fund_savings.xlsx
@@ -482,10 +482,8 @@
           <t>Est Rashed</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8801727176654</t>
-        </is>
+      <c r="D2" t="n">
+        <v>8801727176654</v>
       </c>
       <c r="E2" t="n">
         <v>50</v>
@@ -512,10 +510,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D3" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E3" t="n">
         <v>215</v>
@@ -542,10 +538,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D4" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E4" t="n">
         <v>215</v>
@@ -572,10 +566,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D5" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E5" t="n">
         <v>245</v>
@@ -602,10 +594,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D6" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E6" t="n">
         <v>290</v>
@@ -632,10 +622,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D7" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E7" t="n">
         <v>295</v>
@@ -662,10 +650,8 @@
           <t>Eu Hasib</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8801820237172</t>
-        </is>
+      <c r="D8" t="n">
+        <v>8801820237172</v>
       </c>
       <c r="E8" t="n">
         <v>70</v>
@@ -692,10 +678,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D9" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E9" t="n">
         <v>215</v>
@@ -722,10 +706,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D10" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E10" t="n">
         <v>215</v>
@@ -752,10 +734,8 @@
           <t>Est Noman</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8801887613207</t>
-        </is>
+      <c r="D11" t="n">
+        <v>8801887613207</v>
       </c>
       <c r="E11" t="n">
         <v>40</v>
@@ -782,10 +762,8 @@
           <t>Md.Tareq Ahmed</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8801613979182</t>
-        </is>
+      <c r="D12" t="n">
+        <v>8801613979182</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
@@ -812,10 +790,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D13" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E13" t="n">
         <v>215</v>
@@ -842,10 +818,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D14" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E14" t="n">
         <v>225</v>
@@ -872,10 +846,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D15" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E15" t="n">
         <v>60</v>
@@ -902,10 +874,8 @@
           <t>Eu Hasib</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8801820237172</t>
-        </is>
+      <c r="D16" t="n">
+        <v>8801820237172</v>
       </c>
       <c r="E16" t="n">
         <v>50</v>
@@ -932,10 +902,8 @@
           <t>Md.Tareq Ahmed</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>8801613979182</t>
-        </is>
+      <c r="D17" t="n">
+        <v>8801613979182</v>
       </c>
       <c r="E17" t="n">
         <v>2000</v>
@@ -962,10 +930,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D18" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E18" t="n">
         <v>215</v>
@@ -992,10 +958,8 @@
           <t>Est Noman</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>8801887613207</t>
-        </is>
+      <c r="D19" t="n">
+        <v>8801887613207</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
@@ -1022,10 +986,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D20" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E20" t="n">
         <v>315</v>
@@ -1052,10 +1014,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D21" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E21" t="n">
         <v>215</v>
@@ -1082,10 +1042,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D22" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E22" t="n">
         <v>215</v>
@@ -1112,10 +1070,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D23" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E23" t="n">
         <v>240</v>
@@ -1142,10 +1098,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D24" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E24" t="n">
         <v>100</v>
@@ -1172,10 +1126,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D25" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E25" t="n">
         <v>60</v>
@@ -1202,10 +1154,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D26" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E26" t="n">
         <v>315</v>
@@ -1232,10 +1182,8 @@
           <t>Eu Hasib</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>8801820237172</t>
-        </is>
+      <c r="D27" t="n">
+        <v>8801820237172</v>
       </c>
       <c r="E27" t="n">
         <v>30</v>
@@ -1262,10 +1210,8 @@
           <t>Md.Tareq Ahmed</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>8801613979182</t>
-        </is>
+      <c r="D28" t="n">
+        <v>8801613979182</v>
       </c>
       <c r="E28" t="n">
         <v>20</v>
@@ -1292,10 +1238,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D29" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E29" t="n">
         <v>215</v>
@@ -1322,10 +1266,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D30" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E30" t="n">
         <v>40</v>
@@ -1352,10 +1294,8 @@
           <t>Md.Tareq Ahmed</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>8801613979182</t>
-        </is>
+      <c r="D31" t="n">
+        <v>8801613979182</v>
       </c>
       <c r="E31" t="n">
         <v>20</v>
@@ -1382,10 +1322,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D32" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E32" t="n">
         <v>265</v>
@@ -1412,10 +1350,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D33" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E33" t="n">
         <v>160</v>
@@ -1442,10 +1378,8 @@
           <t>Eu Hasib</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>8801820237172</t>
-        </is>
+      <c r="D34" t="n">
+        <v>8801820237172</v>
       </c>
       <c r="E34" t="n">
         <v>300</v>
@@ -1472,10 +1406,8 @@
           <t>Est Noman</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>8801887613207</t>
-        </is>
+      <c r="D35" t="n">
+        <v>8801887613207</v>
       </c>
       <c r="E35" t="n">
         <v>50</v>
@@ -1502,10 +1434,8 @@
           <t>Eu Hasib</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>8801820237172</t>
-        </is>
+      <c r="D36" t="n">
+        <v>8801820237172</v>
       </c>
       <c r="E36" t="n">
         <v>1000</v>
@@ -1558,10 +1488,8 @@
           <t>Md.Tareq Ahmed</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>8801613979182</t>
-        </is>
+      <c r="D38" t="n">
+        <v>8801613979182</v>
       </c>
       <c r="E38" t="n">
         <v>20</v>
@@ -1588,10 +1516,8 @@
           <t>Est Noman</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>8801887613207</t>
-        </is>
+      <c r="D39" t="n">
+        <v>8801887613207</v>
       </c>
       <c r="E39" t="n">
         <v>40</v>
@@ -1618,10 +1544,8 @@
           <t>Est Rashed</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>8801727176654</t>
-        </is>
+      <c r="D40" t="n">
+        <v>8801727176654</v>
       </c>
       <c r="E40" t="n">
         <v>80</v>
@@ -1648,10 +1572,8 @@
           <t>Est Rashed</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>8801727176654</t>
-        </is>
+      <c r="D41" t="n">
+        <v>8801727176654</v>
       </c>
       <c r="E41" t="n">
         <v>80</v>
@@ -1678,10 +1600,8 @@
           <t>Est Rashed</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>8801727176654</t>
-        </is>
+      <c r="D42" t="n">
+        <v>8801727176654</v>
       </c>
       <c r="E42" t="n">
         <v>30</v>
@@ -1708,10 +1628,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D43" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E43" t="n">
         <v>60</v>
@@ -1738,10 +1656,8 @@
           <t>Eu Hasib</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>8801820237172</t>
-        </is>
+      <c r="D44" t="n">
+        <v>8801820237172</v>
       </c>
       <c r="E44" t="n">
         <v>140</v>
@@ -1768,10 +1684,8 @@
           <t>Est Rashed</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>8801727176654</t>
-        </is>
+      <c r="D45" t="n">
+        <v>8801727176654</v>
       </c>
       <c r="E45" t="n">
         <v>30</v>
@@ -1798,10 +1712,8 @@
           <t>Md.Tareq Ahmed</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>8801613979182</t>
-        </is>
+      <c r="D46" t="n">
+        <v>8801613979182</v>
       </c>
       <c r="E46" t="n">
         <v>900</v>
@@ -1828,10 +1740,8 @@
           <t>Md.Tareq Ahmed</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>8801613979182</t>
-        </is>
+      <c r="D47" t="n">
+        <v>8801613979182</v>
       </c>
       <c r="E47" t="n">
         <v>20</v>
@@ -1858,10 +1768,8 @@
           <t>Est Rashed</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>8801727176654</t>
-        </is>
+      <c r="D48" t="n">
+        <v>8801727176654</v>
       </c>
       <c r="E48" t="n">
         <v>20</v>
@@ -1914,10 +1822,8 @@
           <t>Est Rashed</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>8801727176654</t>
-        </is>
+      <c r="D50" t="n">
+        <v>8801727176654</v>
       </c>
       <c r="E50" t="n">
         <v>20</v>
@@ -1944,10 +1850,8 @@
           <t>Md.Tareq Ahmed</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>8801613979182</t>
-        </is>
+      <c r="D51" t="n">
+        <v>8801613979182</v>
       </c>
       <c r="E51" t="n">
         <v>20</v>
@@ -2000,10 +1904,8 @@
           <t>Eu Dean Sir</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+      <c r="D53" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="E53" t="n">
         <v>215</v>
@@ -2025,7 +1927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,86 +1955,65 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>+880 1795-827745</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>Est Noman</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8801887613207</v>
+      </c>
       <c r="C2" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Est Noman</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>8801887613207</t>
-        </is>
+          <t>Est Rashed</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8801727176654</v>
       </c>
       <c r="C3" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Est Rashed</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>8801727176654</t>
-        </is>
+          <t>Eu Dean Sir</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8801556630474</v>
       </c>
       <c r="C4" t="n">
-        <v>310</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eu Dean Sir</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>8801556630474</t>
-        </is>
+          <t>Eu Hasib</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8801820237172</v>
       </c>
       <c r="C5" t="n">
-        <v>4820</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Eu Hasib</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>8801820237172</t>
-        </is>
+          <t>Md.Tareq Ahmed</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>8801613979182</v>
       </c>
       <c r="C6" t="n">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Md.Tareq Ahmed</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>8801613979182</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
         <v>3020</v>
       </c>
     </row>

--- a/ghost_fund_savings.xlsx
+++ b/ghost_fund_savings.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,6 +1913,126 @@
       <c r="F53" t="inlineStr">
         <is>
           <t>BDT 215</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>12/10/25</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>5:14 PM</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Eu Dean Sir</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>315</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>315 ; Walked instead of Ricshaw and Used Univ. Bus instead of Metro</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>12/10/25</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>3:37 PM</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Md.Tareq Ahmed</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8801613979182</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>40</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Saved 40tk;from rickshaw</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>12/9/25</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>7:35 PM</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Est Rashed</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8801727176654</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>40</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>today I saved 40tk from Rickshaw</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>12/9/25</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>7:07 PM</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Eu Dean Sir</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>215</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Saved from Metro and Ricshaw: 215 Tk.</t>
         </is>
       </c>
     </row>
@@ -1927,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,40 +2101,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eu Dean Sir</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8801556630474</v>
+          <t>Est Rashed</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>8801727176654</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>4820</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eu Hasib</t>
+          <t>Eu Dean Sir</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8801820237172</v>
+        <v>8801556630474</v>
       </c>
       <c r="C5" t="n">
-        <v>1590</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Eu Dean Sir</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8801556630474</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Eu Hasib</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8801820237172</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Md.Tareq Ahmed</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B8" t="n">
         <v>8801613979182</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C8" t="n">
         <v>3020</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Md.Tareq Ahmed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8801613979182</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
